--- a/Manual Test Cases and Bugs/MikeATestCasesQAChallenge.xlsx
+++ b/Manual Test Cases and Bugs/MikeATestCasesQAChallenge.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="86">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Name should be populated in field</t>
   </si>
   <si>
-    <t>First Name text box allows the character and name is populated in the field</t>
-  </si>
-  <si>
     <t>Name is populated in the field</t>
   </si>
   <si>
@@ -269,7 +266,25 @@
     <t>Totals were correct</t>
   </si>
   <si>
-    <t>The first and last name are swapped and no unique ID for Employee but totals were correct</t>
+    <t>First Name text box is populated in the field</t>
+  </si>
+  <si>
+    <t>Last Name should be populated in field</t>
+  </si>
+  <si>
+    <t>Last Name is populated in the field</t>
+  </si>
+  <si>
+    <t>First Name should be populated in field</t>
+  </si>
+  <si>
+    <t>The first and last name are swapped and no unique ID for Employee</t>
+  </si>
+  <si>
+    <t>Verify calculations are correct for edited employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Totals were correct</t>
   </si>
 </sst>
 </file>
@@ -550,88 +565,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -648,6 +603,66 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -968,7 +983,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,48 +995,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1037,10 +1052,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1065,29 +1080,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="40">
         <v>42584</v>
       </c>
       <c r="G6" s="40"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1106,16 +1121,16 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="37" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="38"/>
@@ -1127,77 +1142,77 @@
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="G11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1218,10 +1233,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1232,80 +1247,80 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="M18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="P18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="Q18" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S18" s="13"/>
     </row>
@@ -1313,24 +1328,24 @@
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
       <c r="M19">
         <v>0</v>
       </c>
@@ -1359,24 +1374,24 @@
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18" t="s">
+      <c r="B20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="M20">
         <v>1</v>
       </c>
@@ -1405,24 +1420,24 @@
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
       <c r="M21" s="12">
         <v>2</v>
       </c>
@@ -1451,24 +1466,24 @@
       <c r="A22" s="10">
         <v>5</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
       <c r="M22" s="12">
         <v>3</v>
       </c>
@@ -1497,24 +1512,24 @@
       <c r="A23" s="10">
         <v>6</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
       <c r="M23" s="12">
         <v>4</v>
       </c>
@@ -1543,24 +1558,24 @@
       <c r="A24" s="10">
         <v>7</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
       <c r="M24" s="12">
         <v>5</v>
       </c>
@@ -1612,14 +1627,39 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="B10:D10"/>
@@ -1635,40 +1675,15 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1680,7 +1695,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,48 +1707,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1749,15 +1764,15 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1767,22 +1782,22 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="M4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="Q4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1822,29 +1837,29 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="40">
         <v>42584</v>
       </c>
       <c r="G6" s="40"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
       <c r="M6">
         <v>1</v>
       </c>
@@ -1909,16 +1924,16 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="37" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="38"/>
@@ -1953,22 +1968,22 @@
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="M9" s="12">
         <v>4</v>
       </c>
@@ -1997,20 +2012,20 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="M10" s="12">
         <v>5</v>
       </c>
@@ -2039,20 +2054,20 @@
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="G11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="M11" s="12">
         <v>6</v>
       </c>
@@ -2081,20 +2096,20 @@
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2125,247 +2140,204 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>5</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>6</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>7</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2380,6 +2352,49 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2389,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19:H19"/>
     </sheetView>
   </sheetViews>
@@ -2399,48 +2414,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2456,10 +2471,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2484,29 +2499,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="40">
         <v>42584</v>
       </c>
       <c r="G6" s="40"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -2525,16 +2540,16 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="37" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="38"/>
@@ -2546,77 +2561,77 @@
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2647,180 +2662,141 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2835,6 +2811,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2842,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,48 +2871,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2913,10 +2928,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2941,46 +2956,46 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="40">
         <v>42584</v>
       </c>
       <c r="G6" s="40"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
       <c r="M6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="P6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="Q6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3023,16 +3038,16 @@
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="37" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="38"/>
@@ -3067,22 +3082,22 @@
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="M9" s="12">
         <v>2</v>
       </c>
@@ -3111,20 +3126,20 @@
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="M10" s="12">
         <v>3</v>
       </c>
@@ -3153,18 +3168,18 @@
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="M11" s="12">
         <v>4</v>
       </c>
@@ -3193,18 +3208,18 @@
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="M12" s="12">
         <v>5</v>
       </c>
@@ -3272,7 +3287,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3296,27 +3311,27 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -3324,17 +3339,17 @@
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -3345,24 +3360,24 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -3373,24 +3388,24 @@
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -3401,24 +3416,24 @@
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18" t="s">
+      <c r="B20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -3429,24 +3444,24 @@
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18" t="s">
+      <c r="B21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
@@ -3457,89 +3472,77 @@
       <c r="A22" s="10">
         <v>5</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>6</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
+  <mergeCells count="57">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3554,6 +3557,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
